--- a/shifts.xlsx
+++ b/shifts.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="114">
   <si>
     <t xml:space="preserve">Jour</t>
   </si>
@@ -143,13 +143,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Jean</t>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">15h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walid</t>
   </si>
   <si>
     <t xml:space="preserve">16h</t>
@@ -268,9 +265,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Marie</t>
-  </si>
-  <si>
     <t xml:space="preserve">17h</t>
   </si>
   <si>
@@ -342,9 +336,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Maxence</t>
-  </si>
-  <si>
     <t xml:space="preserve">18h</t>
   </si>
   <si>
@@ -390,9 +381,6 @@
       </rPr>
       <t xml:space="preserve">; 112;</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruben</t>
   </si>
   <si>
     <t xml:space="preserve">19h</t>
@@ -426,9 +414,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Pauline</t>
-  </si>
-  <si>
     <t xml:space="preserve">20h</t>
   </si>
   <si>
@@ -467,9 +452,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Clémence</t>
-  </si>
-  <si>
     <t xml:space="preserve">21h</t>
   </si>
   <si>
@@ -497,9 +479,6 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eloïse</t>
   </si>
   <si>
     <t xml:space="preserve">22h</t>
@@ -554,9 +533,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Damien</t>
-  </si>
-  <si>
     <t xml:space="preserve">23h</t>
   </si>
   <si>
@@ -609,9 +585,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Arthur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Samedi 3</t>
   </si>
   <si>
@@ -642,9 +615,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Emma</t>
-  </si>
-  <si>
     <t xml:space="preserve">01h</t>
   </si>
   <si>
@@ -672,9 +642,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Rayane</t>
-  </si>
-  <si>
     <t xml:space="preserve">02h</t>
   </si>
   <si>
@@ -702,9 +669,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Julien</t>
-  </si>
-  <si>
     <t xml:space="preserve">03h</t>
   </si>
   <si>
@@ -730,9 +694,6 @@
       </rPr>
       <t xml:space="preserve">; 114;</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierre</t>
   </si>
   <si>
     <t xml:space="preserve">04h</t>
@@ -763,13 +724,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Robin</t>
-  </si>
-  <si>
     <t xml:space="preserve">05h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalel</t>
   </si>
   <si>
     <t xml:space="preserve">06h</t>
@@ -822,13 +777,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
     <t xml:space="preserve">07h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armand</t>
   </si>
   <si>
     <t xml:space="preserve">08h</t>
@@ -859,9 +808,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Yass</t>
-  </si>
-  <si>
     <t xml:space="preserve">09h</t>
   </si>
   <si>
@@ -893,9 +839,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Deniz</t>
-  </si>
-  <si>
     <t xml:space="preserve">10h</t>
   </si>
   <si>
@@ -944,9 +887,6 @@
       <t xml:space="preserve">; 106;
 120; 113;</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Maëlys</t>
   </si>
   <si>
     <t xml:space="preserve">11h</t>
@@ -2174,8 +2114,8 @@
   </sheetPr>
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2322,7 +2262,7 @@
         <v>101</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P3" s="11" t="n">
         <v>16</v>
@@ -2331,16 +2271,16 @@
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -2359,7 +2299,7 @@
         <v>102</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P4" s="11" t="n">
         <v>16</v>
@@ -2368,19 +2308,19 @@
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
@@ -2400,7 +2340,7 @@
         <v>103</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="P5" s="11" t="n">
         <v>16</v>
@@ -2409,19 +2349,19 @@
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
@@ -2441,7 +2381,7 @@
         <v>104</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P6" s="11" t="n">
         <v>22</v>
@@ -2450,17 +2390,17 @@
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>18</v>
@@ -2480,7 +2420,7 @@
         <v>105</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="P7" s="11" t="n">
         <v>20</v>
@@ -2489,16 +2429,16 @@
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>18</v>
@@ -2517,7 +2457,7 @@
         <v>106</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="P8" s="11" t="n">
         <v>20</v>
@@ -2526,19 +2466,19 @@
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
@@ -2554,7 +2494,7 @@
         <v>107</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="P9" s="11" t="n">
         <v>17</v>
@@ -2563,7 +2503,7 @@
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2571,10 +2511,10 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>18</v>
@@ -2589,7 +2529,7 @@
         <v>108</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="P10" s="11" t="n">
         <v>18</v>
@@ -2598,7 +2538,7 @@
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
@@ -2608,10 +2548,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>18</v>
@@ -2626,7 +2566,7 @@
         <v>109</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="P11" s="11" t="n">
         <v>16</v>
@@ -2634,10 +2574,10 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2646,7 +2586,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>18</v>
@@ -2661,7 +2601,7 @@
         <v>110</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="P12" s="11" t="n">
         <v>20</v>
@@ -2670,7 +2610,7 @@
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2679,7 +2619,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>18</v>
@@ -2694,7 +2634,7 @@
         <v>111</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="P13" s="11" t="n">
         <v>16</v>
@@ -2703,7 +2643,7 @@
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2712,7 +2652,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>18</v>
@@ -2727,7 +2667,7 @@
         <v>112</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="P14" s="11" t="n">
         <v>19</v>
@@ -2736,7 +2676,7 @@
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2745,7 +2685,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>18</v>
@@ -2760,7 +2700,7 @@
         <v>113</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="P15" s="11" t="n">
         <v>21</v>
@@ -2769,7 +2709,7 @@
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2781,7 +2721,7 @@
         <v>18</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>18</v>
@@ -2793,7 +2733,7 @@
         <v>114</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="P16" s="11" t="n">
         <v>16</v>
@@ -2802,7 +2742,7 @@
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2814,7 +2754,7 @@
         <v>18</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>18</v>
@@ -2826,7 +2766,7 @@
         <v>115</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="P17" s="11" t="n">
         <v>16</v>
@@ -2835,7 +2775,7 @@
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -2850,7 +2790,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>18</v>
@@ -2859,7 +2799,7 @@
         <v>116</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="P18" s="11" t="n">
         <v>16</v>
@@ -2868,7 +2808,7 @@
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2883,7 +2823,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>18</v>
@@ -2892,7 +2832,7 @@
         <v>117</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="P19" s="11" t="n">
         <v>24</v>
@@ -2901,7 +2841,7 @@
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2914,7 +2854,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>18</v>
@@ -2923,7 +2863,7 @@
         <v>118</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="P20" s="11" t="n">
         <v>18</v>
@@ -2932,7 +2872,7 @@
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2941,13 +2881,13 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>18</v>
@@ -2956,7 +2896,7 @@
         <v>119</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="P21" s="11" t="n">
         <v>16</v>
@@ -2965,13 +2905,13 @@
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2991,7 +2931,7 @@
         <v>120</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="P22" s="11" t="n">
         <v>18</v>
@@ -3000,13 +2940,13 @@
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="8" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -3020,24 +2960,24 @@
         <v>18</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>18</v>
@@ -3046,19 +2986,19 @@
         <v>18</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -3072,7 +3012,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3084,7 +3024,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -3098,7 +3038,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3110,7 +3050,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -3130,15 +3070,15 @@
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="16" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -3158,15 +3098,15 @@
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="16" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -3186,15 +3126,15 @@
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="16" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -3214,13 +3154,13 @@
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="15" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -3240,16 +3180,16 @@
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="15" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9" t="s">
@@ -3268,14 +3208,14 @@
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="17" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="s">
@@ -3294,7 +3234,7 @@
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -3302,10 +3242,10 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="8" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>18</v>
@@ -3320,7 +3260,7 @@
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -3328,10 +3268,10 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="8" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>18</v>
@@ -3345,10 +3285,10 @@
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3357,7 +3297,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="14" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>18</v>
@@ -3372,7 +3312,7 @@
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -3381,7 +3321,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="14" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>18</v>
@@ -3396,7 +3336,7 @@
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3405,7 +3345,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="14" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>18</v>
@@ -3420,7 +3360,7 @@
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -3429,7 +3369,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="14" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>18</v>
@@ -3444,7 +3384,7 @@
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -3456,7 +3396,7 @@
         <v>18</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>18</v>
@@ -3468,7 +3408,7 @@
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -3480,7 +3420,7 @@
         <v>18</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="K41" s="9" t="s">
         <v>18</v>
@@ -3492,7 +3432,7 @@
     <row r="42" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -3507,7 +3447,7 @@
         <v>18</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>18</v>
@@ -3516,7 +3456,7 @@
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -3531,7 +3471,7 @@
         <v>18</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="L43" s="9" t="s">
         <v>18</v>
@@ -3540,7 +3480,7 @@
     <row r="44" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -3555,7 +3495,7 @@
         <v>18</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>18</v>
@@ -3564,7 +3504,7 @@
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -3579,7 +3519,7 @@
         <v>18</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>18</v>
@@ -3588,10 +3528,10 @@
     <row r="46" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -3614,10 +3554,10 @@
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -3640,10 +3580,10 @@
     <row r="48" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -3666,13 +3606,13 @@
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3697,10 +3637,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3725,10 +3665,10 @@
         <v>20</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3750,7 +3690,7 @@
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="9"/>
@@ -3774,7 +3714,7 @@
     <row r="53" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
       <c r="B53" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -3838,10 +3778,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -3849,10 +3789,10 @@
     </row>
     <row r="2" customFormat="false" ht="116" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -3860,10 +3800,10 @@
     </row>
     <row r="3" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -3904,10 +3844,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -3915,10 +3855,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -3926,7 +3866,7 @@
     </row>
     <row r="3" customFormat="false" ht="29.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -3972,10 +3912,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -3983,10 +3923,10 @@
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -3994,10 +3934,10 @@
     </row>
     <row r="3" customFormat="false" ht="63.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -4041,10 +3981,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -4052,10 +3992,10 @@
     </row>
     <row r="2" customFormat="false" ht="74.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -4063,10 +4003,10 @@
     </row>
     <row r="3" customFormat="false" ht="62.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -4109,10 +4049,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -4120,10 +4060,10 @@
     </row>
     <row r="2" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -4131,10 +4071,10 @@
     </row>
     <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -4177,10 +4117,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -4188,10 +4128,10 @@
     </row>
     <row r="2" customFormat="false" ht="56.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -4199,10 +4139,10 @@
     </row>
     <row r="3" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -4245,10 +4185,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -4256,10 +4196,10 @@
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -4267,10 +4207,10 @@
     </row>
     <row r="3" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -4311,10 +4251,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -4322,10 +4262,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -4333,10 +4273,10 @@
     </row>
     <row r="3" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -4379,10 +4319,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -4390,10 +4330,10 @@
     </row>
     <row r="2" customFormat="false" ht="60.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -4401,10 +4341,10 @@
     </row>
     <row r="3" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -4447,10 +4387,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -4458,10 +4398,10 @@
     </row>
     <row r="2" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -4469,10 +4409,10 @@
     </row>
     <row r="3" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
